--- a/models/calculation engines/economic_overlay/outputs/depth_splits-collapse_accumulated_bauxite.xlsx
+++ b/models/calculation engines/economic_overlay/outputs/depth_splits-collapse_accumulated_bauxite.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J165"/>
+  <dimension ref="A1:J178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5734,6 +5734,422 @@
         <v>0</v>
       </c>
     </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>1</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>1</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>1</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>1</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
